--- a/financial report data.xlsx
+++ b/financial report data.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl\Documents\Python Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl\Documents\HL_model_git\HL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="revenue" sheetId="1" r:id="rId1"/>
     <sheet name="costs" sheetId="2" r:id="rId2"/>
     <sheet name="aua" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -1750,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C809BF-76D5-4F5B-86EC-054407FAFF76}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1827,7 @@
         <v>42916</v>
       </c>
       <c r="B3" s="3">
-        <v>3465000000</v>
+        <v>3365000000</v>
       </c>
       <c r="C3" s="3">
         <v>35000000</v>
@@ -1842,13 +1842,13 @@
         <v>3400000000</v>
       </c>
       <c r="G3" s="3">
-        <v>19799000000</v>
+        <v>21581000000</v>
       </c>
       <c r="H3" s="3">
-        <v>39368000000</v>
+        <v>37092000000</v>
       </c>
       <c r="I3" s="3">
-        <v>7733000000</v>
+        <v>8327000000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">

--- a/financial report data.xlsx
+++ b/financial report data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="revenue" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>advice_fee</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>paper_income</t>
+  </si>
+  <si>
+    <t>cash_service_aua</t>
+  </si>
+  <si>
+    <t>cash_service</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +517,7 @@
     <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,8 +560,11 @@
       <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42734</v>
       </c>
@@ -601,8 +610,11 @@
       <c r="O2" s="3">
         <v>1400000</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42916</v>
       </c>
@@ -648,8 +660,11 @@
       <c r="O3" s="3">
         <v>2400000</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43098</v>
       </c>
@@ -668,7 +683,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43280</v>
       </c>
@@ -687,7 +702,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43465</v>
       </c>
@@ -706,7 +721,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43644</v>
       </c>
@@ -725,7 +740,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43830</v>
       </c>
@@ -744,7 +759,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44012</v>
       </c>
@@ -763,7 +778,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44196</v>
       </c>
@@ -782,7 +797,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44377</v>
       </c>
@@ -801,7 +816,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44561</v>
       </c>
@@ -820,7 +835,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44742</v>
       </c>
@@ -839,7 +854,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44925</v>
       </c>
@@ -858,7 +873,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45107</v>
       </c>
@@ -877,7 +892,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45289</v>
       </c>
@@ -1750,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C809BF-76D5-4F5B-86EC-054407FAFF76}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,6 +1806,9 @@
       <c r="I1" t="s">
         <v>27</v>
       </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1820,6 +1838,9 @@
       <c r="I2" s="3">
         <v>6866200000</v>
       </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1849,6 +1870,9 @@
       </c>
       <c r="I3" s="3">
         <v>8327000000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">

--- a/financial report data.xlsx
+++ b/financial report data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="435" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="revenue" sheetId="1" r:id="rId1"/>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,20 +668,47 @@
       <c r="A4" s="1">
         <v>43098</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="B4" s="3">
+        <v>5700000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>33300000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>18200000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>700000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>9800000</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="K4" s="3">
+        <v>97800000</v>
+      </c>
+      <c r="L4" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="N4" s="3">
+        <v>33100000</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1283,7 +1310,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,13 +1403,27 @@
       <c r="A4" s="1">
         <v>43098</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="B4" s="3">
+        <v>300000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-4400000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-6900000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-2900000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-15200000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-41800000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-6000000</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1765,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C809BF-76D5-4F5B-86EC-054407FAFF76}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,6 +1928,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
+      <c r="J4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">

--- a/financial report data.xlsx
+++ b/financial report data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="435" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="435" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="revenue" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Charles Li</author>
+  </authors>
+  <commentList>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{766E8024-441E-42F1-9A2C-B89C7D1BB87D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Charles Li:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+56% and 44% split
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
@@ -120,13 +155,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,11 +539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,8 +737,12 @@
       <c r="H4" s="3">
         <v>9800000</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="3">
+        <v>1892000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2408000</v>
+      </c>
       <c r="K4" s="3">
         <v>97800000</v>
       </c>
@@ -1302,6 +1354,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1310,7 +1363,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C809BF-76D5-4F5B-86EC-054407FAFF76}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,14 +1973,30 @@
       <c r="A4" s="1">
         <v>43098</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="B4" s="3">
+        <v>3535544318.181818</v>
+      </c>
+      <c r="C4" s="3">
+        <v>36773863.636363633</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5568613636.363637</v>
+      </c>
+      <c r="E4" s="3">
+        <v>105068181.81818183</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3551251305</v>
+      </c>
+      <c r="G4" s="3">
+        <v>22308692657.55228</v>
+      </c>
+      <c r="H4" s="3">
+        <v>42495046697.8731</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8499009339.5746202</v>
+      </c>
       <c r="J4">
         <v>0</v>
       </c>
@@ -1936,10 +2005,6 @@
       <c r="A5" s="1">
         <v>43280</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>

--- a/financial report data.xlsx
+++ b/financial report data.xlsx
@@ -20,41 +20,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Charles Li</author>
-  </authors>
-  <commentList>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{766E8024-441E-42F1-9A2C-B89C7D1BB87D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Charles Li:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-56% and 44% split
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
@@ -155,26 +120,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -539,11 +491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1306,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1860,7 +1811,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,28 +1925,28 @@
         <v>43098</v>
       </c>
       <c r="B4" s="3">
-        <v>3535544318.181818</v>
+        <v>3562941176.4705882</v>
       </c>
       <c r="C4" s="3">
-        <v>36773863.636363633</v>
+        <v>37058823.529411763</v>
       </c>
       <c r="D4" s="3">
-        <v>5568613636.363637</v>
+        <v>5248530880.4994593</v>
       </c>
       <c r="E4" s="3">
-        <v>105068181.81818183</v>
+        <v>99028884.537725642</v>
       </c>
       <c r="F4" s="3">
-        <v>3551251305</v>
+        <v>3400000000</v>
       </c>
       <c r="G4" s="3">
-        <v>22308692657.55228</v>
+        <v>25100000000</v>
       </c>
       <c r="H4" s="3">
-        <v>42495046697.8731</v>
+        <v>40052440234.962814</v>
       </c>
       <c r="I4" s="3">
-        <v>8499009339.5746202</v>
+        <v>8600000000</v>
       </c>
       <c r="J4">
         <v>0</v>

--- a/financial report data.xlsx
+++ b/financial report data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl\Documents\HL_model_git\HL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl\Documents\HL_model_git\HL_live\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEA3EBC-9551-4703-B4EA-95060803FB8E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="435" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="435" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="revenue" sheetId="1" r:id="rId1"/>
     <sheet name="costs" sheetId="2" r:id="rId2"/>
     <sheet name="aua" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -494,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,20 +719,51 @@
       <c r="A5" s="1">
         <v>43280</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="B5" s="3">
+        <v>12100000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8600000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>67200000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>42100000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>19464893.617021278</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4460618.1818181816</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4839381.8181818184</v>
+      </c>
+      <c r="K5" s="3">
+        <v>198000000</v>
+      </c>
+      <c r="L5" s="3">
+        <v>12635106.382978724</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5600000</v>
+      </c>
+      <c r="N5" s="3">
+        <v>69771428.571428567</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2828571.4285714286</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1314,7 +1346,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,13 +1465,27 @@
       <c r="A5" s="1">
         <v>43280</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="B5" s="3">
+        <v>-3500000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-10300000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-16300000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-6200000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-35000000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-87400000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-16100000</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1810,20 +1856,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C809BF-76D5-4F5B-86EC-054407FAFF76}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1863,7 +1911,7 @@
         <v>3159000000</v>
       </c>
       <c r="C2" s="3">
-        <v>50000000</v>
+        <v>69000000</v>
       </c>
       <c r="D2" s="3">
         <v>4303000000</v>
@@ -1878,7 +1926,7 @@
         <v>18022800000</v>
       </c>
       <c r="H2" s="3">
-        <v>34331000000</v>
+        <v>34312000000</v>
       </c>
       <c r="I2" s="3">
         <v>6866200000</v>
@@ -1893,10 +1941,10 @@
         <v>42916</v>
       </c>
       <c r="B3" s="3">
-        <v>3365000000</v>
+        <v>3400000000</v>
       </c>
       <c r="C3" s="3">
-        <v>35000000</v>
+        <v>100000000</v>
       </c>
       <c r="D3" s="3">
         <v>5300000000</v>
@@ -1911,7 +1959,7 @@
         <v>21581000000</v>
       </c>
       <c r="H3" s="3">
-        <v>37092000000</v>
+        <v>36092000000</v>
       </c>
       <c r="I3" s="3">
         <v>8327000000</v>
@@ -1925,16 +1973,16 @@
         <v>43098</v>
       </c>
       <c r="B4" s="3">
-        <v>3562941176.4705882</v>
+        <v>3500000000</v>
       </c>
       <c r="C4" s="3">
-        <v>37058823.529411763</v>
+        <v>100000000</v>
       </c>
       <c r="D4" s="3">
-        <v>5248530880.4994593</v>
+        <v>5639592592.5925932</v>
       </c>
       <c r="E4" s="3">
-        <v>99028884.537725642</v>
+        <v>106407407.4074074</v>
       </c>
       <c r="F4" s="3">
         <v>3400000000</v>
@@ -1943,12 +1991,12 @@
         <v>25100000000</v>
       </c>
       <c r="H4" s="3">
-        <v>40052440234.962814</v>
+        <v>39654000000</v>
       </c>
       <c r="I4" s="3">
         <v>8600000000</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1956,10 +2004,33 @@
       <c r="A5" s="1">
         <v>43280</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="B5" s="3">
+        <v>3500000000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5952685185.1851854</v>
+      </c>
+      <c r="E5" s="3">
+        <v>112314814.81481481</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3700000000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>27300000000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>41315000000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>9600000000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>20000000</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1973,6 +2044,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1986,6 +2058,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1999,6 +2072,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2012,6 +2086,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2025,6 +2100,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2038,6 +2114,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2051,6 +2128,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2064,6 +2142,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2077,6 +2156,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2090,6 +2170,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2103,8 +2184,9 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45471</v>
       </c>
@@ -2116,8 +2198,9 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2129,8 +2212,9 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45838</v>
       </c>
@@ -2142,8 +2226,9 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>46022</v>
       </c>
@@ -2155,8 +2240,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>46203</v>
       </c>
@@ -2168,8 +2254,9 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>46387</v>
       </c>
@@ -2181,8 +2268,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>46568</v>
       </c>
@@ -2194,8 +2282,9 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
@@ -2207,8 +2296,9 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46934</v>
       </c>
@@ -2220,8 +2310,9 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>47116</v>
       </c>
@@ -2233,8 +2324,9 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>47298</v>
       </c>
@@ -2246,8 +2338,9 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>47483</v>
       </c>
@@ -2259,8 +2352,9 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>47662</v>
       </c>
@@ -2272,8 +2366,9 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>47848</v>
       </c>
@@ -2285,8 +2380,9 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>48029</v>
       </c>
@@ -2298,8 +2394,9 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>48213</v>
       </c>
@@ -2311,8 +2408,9 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>48395</v>
       </c>
@@ -2324,8 +2422,9 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>48579</v>
       </c>
@@ -2337,8 +2436,9 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>48760</v>
       </c>
@@ -2350,6 +2450,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/financial report data.xlsx
+++ b/financial report data.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl\Documents\HL_model_git\HL_live\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl.WAVEPOWER\PycharmProjects\HL_live\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEA3EBC-9551-4703-B4EA-95060803FB8E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE3CE5-B0B6-48FF-B900-1A17BA6EC730}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="435" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="435" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="revenue" sheetId="1" r:id="rId1"/>
     <sheet name="costs" sheetId="2" r:id="rId2"/>
     <sheet name="aua" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -495,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +523,7 @@
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -769,20 +777,51 @@
       <c r="A6" s="1">
         <v>43465</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="B6" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>34700000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>33300000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10800000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>614400</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2385600</v>
+      </c>
+      <c r="K6" s="3">
+        <v>103100000</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5900000</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="N6" s="3">
+        <v>31522077.92207792</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1277922.0779220778</v>
+      </c>
+      <c r="P6" s="3">
+        <v>500000</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1345,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,13 +1530,27 @@
       <c r="A6" s="1">
         <v>43465</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="B6" s="3">
+        <v>-300000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-5800000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-6000000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-3536407.766990291</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-19963592.233009707</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-49500000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-6500000</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1856,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C809BF-76D5-4F5B-86EC-054407FAFF76}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,7 +1924,7 @@
     <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2036,15 +2089,33 @@
       <c r="A6" s="1">
         <v>43465</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="B6" s="3">
+        <v>3200000000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5336000000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3400000000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>25100000000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>37979000000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>10300000000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>385000000</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
